--- a/biology/Biochimie/Phytochemistry/Phytochemistry.xlsx
+++ b/biology/Biochimie/Phytochemistry/Phytochemistry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phytochemistry est une revue scientifique à comité de lecture couvrant la chimie végétale pure et appliquée, la biochimie végétale et la biologie moléculaire. Il est publié par Elsevier et constitue une publication officielle de la Société phytochimique d'Europe, de la Société phytochimique d'Amérique du Nord et de la Société phytochimique d'Asie.
 Une revue sœur, Phytochemistry Letters, est publiée depuis 2008.
@@ -512,7 +524,9 @@
           <t>Résumé et indexation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Phytochemistry est résumée et indexée dans :
 AGRICOLA
@@ -531,7 +545,7 @@
 Science Citation Index
 Scopus
 .
-Selon le Journal Citation Reports, la revue a un facteur d'impact 2020 de 4,072[1].
+Selon le Journal Citation Reports, la revue a un facteur d'impact 2020 de 4,072.
 </t>
         </is>
       </c>
